--- a/media/mof-dataset.xlsx
+++ b/media/mof-dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmirHosein\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Science &amp; Uni\university\materials obsidian\my-academia\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3580B20-7EE6-4C6E-84E4-F2DD305F348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FEDFAA-E5C3-4BFA-BF5D-748E099915E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12576" yWindow="12" windowWidth="10572" windowHeight="10356" xr2:uid="{7A6693AB-2821-4552-AFA7-34CFB3F24054}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A6693AB-2821-4552-AFA7-34CFB3F24054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>core-shell</t>
   </si>
   <si>
-    <t>dual pH/temperature sensitive</t>
-  </si>
-  <si>
     <t>np</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>bjh pore diameter (nm)</t>
-  </si>
-  <si>
     <t>EE%</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>10.1021/acsanm.4c02074</t>
+  </si>
+  <si>
+    <t>bjh pore radius (nm)</t>
+  </si>
+  <si>
+    <t>co-delivery of dox and carboplatin</t>
   </si>
 </sst>
 </file>
@@ -307,6 +307,66 @@
   <dxfs count="23">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -326,6 +386,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -409,295 +484,220 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="178"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -713,30 +713,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8390E89A-DCA2-4E5E-8885-F08A176ECC1D}" name="Table1" displayName="Table1" ref="A1:U26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8390E89A-DCA2-4E5E-8885-F08A176ECC1D}" name="Table1" displayName="Table1" ref="A1:U26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:U26" xr:uid="{8390E89A-DCA2-4E5E-8885-F08A176ECC1D}"/>
   <tableColumns count="21">
-    <tableColumn id="21" xr3:uid="{8F28C90A-3D84-4AD0-A4F9-6A153B074B1F}" name="np" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{4F399DD5-7CDD-4012-BFB5-C7F8D675FFB8}" name="mof" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{8EA8BDE6-D142-47D2-898F-2E909B5EF49E}" name="np size (nm) before loading" dataDxfId="20"/>
-    <tableColumn id="30" xr3:uid="{E671AF45-F1DF-4729-82EE-E1BE5F7D3E93}" name="np size (nm) after loading" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{A7285B64-01BF-415E-954E-4DCD431BF271}" name="np structure" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7D3E64B4-7716-4B35-B1C1-A89539B38F71}" name="drug" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{7B47B682-F1FF-47C1-B91C-0D9A74EDF8D1}" name="average pore volume(nm3)" dataDxfId="17"/>
-    <tableColumn id="25" xr3:uid="{506A199C-0639-4B0C-94D8-9C4FCDE31347}" name="surface area (m2/g)" dataDxfId="16"/>
-    <tableColumn id="26" xr3:uid="{305B0A26-D0E7-4A32-8560-A8A789A17BDD}" name="total pore volume(cm3/g)" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{02094519-5B36-4D86-B0E1-99BF5CE0A94E}" name="bjh pore diameter (nm)" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{F2FCEDE4-7BB0-4ECB-9D30-90B1E708A8B5}" name="zeta potential (mV) before loading" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{FDF4D4F4-B1F3-4D10-BF3B-0A3E71E81962}" name="zeta potential (mV) after loading" dataDxfId="2"/>
-    <tableColumn id="34" xr3:uid="{39EC8261-DE11-4FB1-A527-23BCF34D4214}" name="Polydispersity index before loading" dataDxfId="0"/>
-    <tableColumn id="29" xr3:uid="{EA61ACBB-D96C-4D12-9425-4B624F4978CF}" name="Polydispersity index after loading" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{80559FA9-384C-4DF9-B275-685DB6C412B1}" name="EE%" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{F3EB8466-1632-43A2-AADB-D46390AC837C}" name="LC%" dataDxfId="11"/>
-    <tableColumn id="32" xr3:uid="{AAA30EA5-BFFB-4993-B818-726C74BC33F7}" name="(loading process)" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{A4BC0E09-AA01-4578-B4E9-008FA7BEC707}" name="description" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{869769B9-5F18-4496-A50A-DFE9313FDC30}" name="paper date" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{D6550D60-8701-4722-86A8-F68401703DA9}" name="paper title" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{042E98B3-6900-405D-8B08-EF4FBD2A2AF5}" name="paper doi" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{8F28C90A-3D84-4AD0-A4F9-6A153B074B1F}" name="np" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{4F399DD5-7CDD-4012-BFB5-C7F8D675FFB8}" name="mof" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{8EA8BDE6-D142-47D2-898F-2E909B5EF49E}" name="np size (nm) before loading" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{E671AF45-F1DF-4729-82EE-E1BE5F7D3E93}" name="np size (nm) after loading" dataDxfId="17"/>
+    <tableColumn id="24" xr3:uid="{A7285B64-01BF-415E-954E-4DCD431BF271}" name="np structure" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{7D3E64B4-7716-4B35-B1C1-A89539B38F71}" name="drug" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{7B47B682-F1FF-47C1-B91C-0D9A74EDF8D1}" name="average pore volume(nm3)" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{506A199C-0639-4B0C-94D8-9C4FCDE31347}" name="surface area (m2/g)" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{305B0A26-D0E7-4A32-8560-A8A789A17BDD}" name="total pore volume(cm3/g)" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{02094519-5B36-4D86-B0E1-99BF5CE0A94E}" name="bjh pore radius (nm)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F2FCEDE4-7BB0-4ECB-9D30-90B1E708A8B5}" name="zeta potential (mV) before loading" dataDxfId="10"/>
+    <tableColumn id="31" xr3:uid="{FDF4D4F4-B1F3-4D10-BF3B-0A3E71E81962}" name="zeta potential (mV) after loading" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{39EC8261-DE11-4FB1-A527-23BCF34D4214}" name="Polydispersity index before loading" dataDxfId="8"/>
+    <tableColumn id="29" xr3:uid="{EA61ACBB-D96C-4D12-9425-4B624F4978CF}" name="Polydispersity index after loading" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{80559FA9-384C-4DF9-B275-685DB6C412B1}" name="EE%" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{F3EB8466-1632-43A2-AADB-D46390AC837C}" name="LC%" dataDxfId="5"/>
+    <tableColumn id="32" xr3:uid="{AAA30EA5-BFFB-4993-B818-726C74BC33F7}" name="(loading process)" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{A4BC0E09-AA01-4578-B4E9-008FA7BEC707}" name="description" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{869769B9-5F18-4496-A50A-DFE9313FDC30}" name="paper date" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{D6550D60-8701-4722-86A8-F68401703DA9}" name="paper title" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{042E98B3-6900-405D-8B08-EF4FBD2A2AF5}" name="paper doi" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1039,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829502DF-9729-41F2-BB95-F1BA0EAEDCED}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1056,7 @@
     <col min="7" max="7" width="27.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="13" width="22.21875" customWidth="1"/>
     <col min="14" max="14" width="31" customWidth="1"/>
     <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -1068,57 +1068,57 @@
     <col min="21" max="21" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -1132,12 +1132,10 @@
       <c r="U1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1152,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>3.4000000000000002E-2</v>
@@ -1185,10 +1183,10 @@
         <v>55.54</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="S2" s="2">
         <v>2024</v>
@@ -1199,12 +1197,10 @@
       <c r="U2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1219,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2">
         <v>3.4000000000000002E-2</v>
@@ -1246,16 +1242,16 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" s="2">
         <v>11.6</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="S3" s="2">
         <v>2024</v>
@@ -1266,12 +1262,10 @@
       <c r="U3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1286,19 +1280,19 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2">
         <v>15.9</v>
@@ -1307,10 +1301,10 @@
         <v>-13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" s="2">
         <v>81.8</v>
@@ -1319,24 +1313,22 @@
         <v>28.3</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2">
         <v>2024</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -1348,19 +1340,19 @@
         <v>170</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2">
         <v>0.81699999999999995</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="5">
         <v>0.57999999999999996</v>
@@ -1372,36 +1364,34 @@
         <v>13.4</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>84.8</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2">
         <v>2024</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -1410,14 +1400,18 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>22.2</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1428,15 +1422,13 @@
         <v>2024</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1458,10 +1450,8 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1483,10 +1473,8 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1508,10 +1496,8 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1533,10 +1519,8 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1559,7 +1543,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1582,7 +1566,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1605,7 +1589,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1628,7 +1612,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1651,7 +1635,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1907,9 +1891,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/media/mof-dataset.xlsx
+++ b/media/mof-dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Science &amp; Uni\university\materials obsidian\my-academia\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FEDFAA-E5C3-4BFA-BF5D-748E099915E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F081ED95-3275-46E3-B896-0B7E7D15DD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A6693AB-2821-4552-AFA7-34CFB3F24054}"/>
   </bookViews>
@@ -207,7 +207,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +259,16 @@
       <name val="Tahoma"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +281,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -280,10 +296,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -300,8 +317,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -419,41 +447,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -728,8 +724,8 @@
     <tableColumn id="16" xr3:uid="{02094519-5B36-4D86-B0E1-99BF5CE0A94E}" name="bjh pore radius (nm)" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{F2FCEDE4-7BB0-4ECB-9D30-90B1E708A8B5}" name="zeta potential (mV) before loading" dataDxfId="10"/>
     <tableColumn id="31" xr3:uid="{FDF4D4F4-B1F3-4D10-BF3B-0A3E71E81962}" name="zeta potential (mV) after loading" dataDxfId="9"/>
-    <tableColumn id="34" xr3:uid="{39EC8261-DE11-4FB1-A527-23BCF34D4214}" name="Polydispersity index before loading" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{EA61ACBB-D96C-4D12-9425-4B624F4978CF}" name="Polydispersity index after loading" dataDxfId="7"/>
+    <tableColumn id="34" xr3:uid="{39EC8261-DE11-4FB1-A527-23BCF34D4214}" name="Polydispersity index before loading" dataDxfId="8" dataCellStyle="Neutral"/>
+    <tableColumn id="29" xr3:uid="{EA61ACBB-D96C-4D12-9425-4B624F4978CF}" name="Polydispersity index after loading" dataDxfId="7" dataCellStyle="Neutral"/>
     <tableColumn id="27" xr3:uid="{80559FA9-384C-4DF9-B275-685DB6C412B1}" name="EE%" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{F3EB8466-1632-43A2-AADB-D46390AC837C}" name="LC%" dataDxfId="5"/>
     <tableColumn id="32" xr3:uid="{AAA30EA5-BFFB-4993-B818-726C74BC33F7}" name="(loading process)" dataDxfId="4"/>
@@ -1041,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829502DF-9729-41F2-BB95-F1BA0EAEDCED}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,10 +1051,11 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="12" width="22.21875" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="31" style="9" customWidth="1"/>
     <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
@@ -1105,10 +1102,10 @@
       <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1170,10 +1167,10 @@
       <c r="L2" s="2">
         <v>30</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="8">
         <v>0.33900000000000002</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="8">
         <v>0.35499999999999998</v>
       </c>
       <c r="O2" s="2">
@@ -1235,10 +1232,10 @@
       <c r="L3" s="2">
         <v>25</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="8">
         <v>0.29799999999999999</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="8">
         <v>0.33900000000000002</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1270,7 +1267,7 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>180.1</v>
       </c>
       <c r="D4" s="2">
@@ -1300,10 +1297,10 @@
       <c r="L4" s="2">
         <v>-13</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O4" s="2">
@@ -1363,10 +1360,10 @@
       <c r="L5" s="2">
         <v>13.4</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -1412,8 +1409,8 @@
       <c r="L6" s="2">
         <v>22.2</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1441,8 +1438,8 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1464,8 +1461,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1487,8 +1484,8 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1510,8 +1507,8 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1533,8 +1530,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1556,8 +1553,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1579,8 +1576,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1602,8 +1599,8 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1625,8 +1622,8 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1648,8 +1645,8 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1671,8 +1668,8 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1694,8 +1691,8 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1717,8 +1714,8 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1740,8 +1737,8 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1763,8 +1760,8 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1786,8 +1783,8 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1809,8 +1806,8 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1832,8 +1829,8 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -1855,8 +1852,8 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1878,8 +1875,8 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
